--- a/实验数据_init.xlsx
+++ b/实验数据_init.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1GIT\animal_detect_paddle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E06836E-5B4D-4116-A34C-A49978C685A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D451B528-1682-4004-9E94-AB16913B53C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3900" windowWidth="29040" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学习率" sheetId="4" r:id="rId1"/>
     <sheet name="VGG16" sheetId="5" r:id="rId2"/>
-    <sheet name="ResNet" sheetId="6" r:id="rId3"/>
+    <sheet name="RepVGG" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,16 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
   <si>
     <t>VGG16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ResNet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>recall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>损失函数：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交叉熵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>epochs：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>训练超参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +90,14 @@
   </si>
   <si>
     <t>epochs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepVGG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +128,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +150,13 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,14 +179,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,9 +215,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输出" xfId="2" builtinId="21"/>
     <cellStyle name="输入" xfId="1" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -207,6 +238,255 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52460F2-A92D-AC25-C23B-1CEBB27F644D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="76200" y="2257425"/>
+          <a:ext cx="3581400" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C48BC11-3DA9-9B81-040E-1967A958AA06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3762375" y="2295525"/>
+          <a:ext cx="3581400" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB2F110-E998-9F3F-9959-5E26257A4EA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7553325" y="2314575"/>
+          <a:ext cx="3581400" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F26503-BB30-8F86-DE8F-CF889153438B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11439525" y="2352675"/>
+          <a:ext cx="3581400" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,7 +755,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,82 +772,106 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -581,10 +885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB91CB32-7AC0-4D9B-921B-8BBCE61FC0A1}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,120 +901,122 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -720,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3EED62-DFC9-4BB6-AD6E-D0A29CEA062F}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -736,102 +1042,164 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.410937</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.15781200000000001</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.14843700000000001</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.58906199999999997</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.54374999999999996</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.84218700000000002</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.85156200000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.414161</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.46563399999999999</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.159138</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.155777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B10" s="5">
+        <v>0.41121799999999997</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.45845799999999998</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.15798899999999999</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.149538</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/实验数据_init.xlsx
+++ b/实验数据_init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1GIT\animal_detect_paddle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D451B528-1682-4004-9E94-AB16913B53C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0FF6A0-2C6D-4993-8989-50C14E745A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3900" windowWidth="29040" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学习率" sheetId="4" r:id="rId1"/>
@@ -215,10 +215,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -241,6 +241,194 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCDF4A4-8CED-8781-2575-F0503D301DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7296150" y="2219325"/>
+          <a:ext cx="3581400" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC32BEC-1BE2-9DC5-493E-F494E70F9368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11410950" y="2171700"/>
+          <a:ext cx="3581400" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1122778-A3E4-7CB2-7F4F-A2830ACF05E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3124200" y="2286000"/>
+          <a:ext cx="3581400" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -752,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DA4441-08D2-4A98-B1ED-A97A9B492481}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="E6:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,17 +958,17 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -794,7 +982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -806,72 +994,105 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F5" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E5" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>0.55312499999999998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.32343699999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>0.44687500000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.676562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>0.58024699999999996</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.41016999999999998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.341005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>0.552678</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.41202800000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.32534999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -880,6 +1101,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -888,7 +1110,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -905,12 +1127,12 @@
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -945,74 +1167,74 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1028,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3EED62-DFC9-4BB6-AD6E-D0A29CEA062F}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -1046,12 +1268,12 @@
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1086,106 +1308,106 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.410937</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.45624999999999999</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.15781200000000001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.14843700000000001</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.58906199999999997</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.54374999999999996</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.84218700000000002</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.85156200000000004</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.414161</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.46563399999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.159138</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.155777</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.41121799999999997</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.45845799999999998</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.15798899999999999</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.149538</v>
       </c>
       <c r="L10"/>
